--- a/biology/Médecine/Oswald_Schmiedeberg/Oswald_Schmiedeberg.xlsx
+++ b/biology/Médecine/Oswald_Schmiedeberg/Oswald_Schmiedeberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Ernst Oswald Schmiedeberg, né le 11 octobre 1838 à Laidze, à proximité de Talsi (Empire russe d'alors, Lettonie actuelle) et mort à 12 juillet 1921 à Baden-Baden est un médecin et pharmacologue allemand d'origine balte, considéré comme le fondateur de la pharmacologie moderne, influençant profondément la recherche médicale dans le monde entier[1]. Il introduit les concepts fondamentaux de relation structure-activité, de récepteurs aux médicaments et de toxicité sélective. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Ernst Oswald Schmiedeberg, né le 11 octobre 1838 à Laidze, à proximité de Talsi (Empire russe d'alors, Lettonie actuelle) et mort à 12 juillet 1921 à Baden-Baden est un médecin et pharmacologue allemand d'origine balte, considéré comme le fondateur de la pharmacologie moderne, influençant profondément la recherche médicale dans le monde entier. Il introduit les concepts fondamentaux de relation structure-activité, de récepteurs aux médicaments et de toxicité sélective. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né d'un père agent forestier, il fait ses études à l'Université russe de Dorpat, où l'enseignement se tient alors en allemand. Il y est l'élève de Rudolf Buchheim et lui succède à l'âge de 28 ans, à la chaire de pharmacologie expérimentale. Il étudie les propriétés de la muscarine, de l'atropine et de la digitaline. 
 Nommé professeur à 32 ans, il crée le premier institut allemand de pharmacologie à Strasbourg en  1872, où il accueille plus de cent cinquante étudiants de différentes nationalités dont Paul Ehrlich, Otto Loewi et John Jacob Abel. 
-Il est membre[2] correspondant étranger de l'Académie nationale de médecine et de très nombreuses sociétés savantes.
+Il est membre correspondant étranger de l'Académie nationale de médecine et de très nombreuses sociétés savantes.
 </t>
         </is>
       </c>
